--- a/Employee_Reports35/Roderick Cailao Amar Q0480.xlsx
+++ b/Employee_Reports35/Roderick Cailao Amar Q0480.xlsx
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="56" customWidth="1" min="2" max="2"/>
+    <col width="73" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -584,11 +584,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -633,11 +633,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -682,11 +682,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -780,11 +780,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -829,11 +829,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -878,11 +878,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -927,11 +927,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -976,11 +976,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1025,11 +1025,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1074,11 +1074,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1123,11 +1123,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1172,11 +1172,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1221,11 +1221,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1270,11 +1270,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1319,11 +1319,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1368,11 +1368,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1383,90 +1383,90 @@
       <c r="K19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>LSME-CRG-SOP-028</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>10-Oct-2023</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>09-Oct-2024</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>-390</v>
-      </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>12-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>12-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>07-Aug-2024</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>07-Aug-2025</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>-89</v>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K20" s="5" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>18-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>18-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>135</v>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
+      <c r="K21" s="5" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -1474,36 +1474,490 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>09-Apr-2025</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>09-Apr-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>156</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>18-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>18-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-003</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>02-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>02-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>302</v>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Weight Scale Verification Procedure(LSME-IMS-SOP-023 ) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-023</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>01-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>01-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>301</v>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-009</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>02-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>02-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>302</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-010</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>02-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>02-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>302</v>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>01-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>01-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>301</v>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>30-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>30-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>330</v>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>11-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>11-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>311</v>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>ULD Hoist Drve Motor Replacement (SOPs)</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>11-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>11-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>311</v>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
+      <c r="E32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>12-Jul-2025</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
         <is>
           <t>12-Jul-2027</t>
         </is>
       </c>
-      <c r="H22" s="3" t="n">
-        <v>616</v>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
+      <c r="H32" s="3" t="n">
+        <v>615</v>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Roderick Cailao Amar Q0480.xlsx
+++ b/Employee_Reports35/Roderick Cailao Amar Q0480.xlsx
@@ -584,11 +584,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -633,11 +633,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -682,11 +682,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -780,11 +780,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -829,11 +829,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -878,11 +878,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -927,11 +927,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -976,11 +976,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1025,11 +1025,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1074,11 +1074,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1123,11 +1123,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1172,11 +1172,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1221,11 +1221,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1270,11 +1270,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1319,11 +1319,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1368,11 +1368,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1417,11 +1417,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="5" t="n">
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="I21" s="5" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="5" t="inlineStr">
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1540,11 +1540,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1589,11 +1589,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1638,11 +1638,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1687,11 +1687,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1736,11 +1736,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1785,11 +1785,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1822,11 +1822,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1871,11 +1871,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1908,11 +1908,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1945,11 +1945,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
